--- a/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_7.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.patrukhachev\source\repos\TspuWebPortal\TspuWebPortal\Development\unsafe_uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v.patrukhachev\Documents\DCOA Разное\04. РД ЦОДов\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="119">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Наименование оборудования, комплекта</t>
   </si>
   <si>
-    <t>Тип, марка</t>
-  </si>
-  <si>
-    <t>Заводской номер или маркировка</t>
-  </si>
-  <si>
     <t>Инвентарный номер</t>
   </si>
   <si>
@@ -351,6 +345,42 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Заводской номер</t>
+  </si>
+  <si>
+    <t>Маркировка АСБИ</t>
+  </si>
+  <si>
+    <t>Сервер S1 / SIEM-AG-3-F1</t>
+  </si>
+  <si>
+    <t>Сервер S1 / SIEM4</t>
+  </si>
+  <si>
+    <t>Сервер S1 / SIEM3</t>
+  </si>
+  <si>
+    <t>Сервер S1 / SIEM2</t>
+  </si>
+  <si>
+    <t>Сервер S1 / SIEM1</t>
+  </si>
+  <si>
+    <t>Сервер S1 / MaxPatrol8</t>
+  </si>
+  <si>
+    <t>Сервер S5 / SIEM Logs (SIEM-SERVER-1)</t>
+  </si>
+  <si>
+    <t>Сервер S5 / ИБ (СУБД KSC, SNS)</t>
+  </si>
+  <si>
+    <t>не задано</t>
+  </si>
+  <si>
+    <t>Usergate F25 / UserGate Log Anayzer</t>
   </si>
 </sst>
 </file>
@@ -723,17 +753,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O32" sqref="O2:O32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="110" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="51.7109375" bestFit="1" customWidth="1"/>
@@ -752,1249 +782,1285 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2">
         <v>2021</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" s="2">
         <v>2021</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L4" s="2">
         <v>2021</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L5" s="2">
         <v>2021</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L6" s="2">
         <v>2021</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2021</v>
+      </c>
       <c r="M7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L8" s="2">
         <v>2020</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L9" s="2">
         <v>2020</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L10" s="2">
         <v>2021</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2021</v>
+      </c>
       <c r="M11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L12" s="2">
         <v>2021</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L13" s="2">
         <v>2021</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L14" s="2">
         <v>2020</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L15" s="2">
         <v>2020</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2020</v>
+      </c>
       <c r="M16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L17" s="2">
         <v>2020</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L18" s="2">
         <v>2020</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="L19" s="2">
+        <v>2020</v>
+      </c>
       <c r="M19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L20" s="2">
         <v>2020</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L21" s="2">
         <v>2020</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2020</v>
+      </c>
       <c r="M22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L23" s="2">
         <v>2020</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L24" s="2">
         <v>2020</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="L25" s="2">
+        <v>2020</v>
+      </c>
       <c r="M25" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L26" s="2">
         <v>2020</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L27" s="2">
         <v>2020</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L28" s="2">
         <v>2021</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2">
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L29" s="2">
         <v>2021</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L30" s="2">
         <v>2021</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L31" s="2">
         <v>2021</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2">
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L32" s="2">
         <v>2021</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_7.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_7.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="123">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -377,10 +377,22 @@
     <t>Сервер S5 / ИБ (СУБД KSC, SNS)</t>
   </si>
   <si>
-    <t>не задано</t>
-  </si>
-  <si>
     <t>Usergate F25 / UserGate Log Anayzer</t>
+  </si>
+  <si>
+    <t>FT-SFP+SR-0.3-D</t>
+  </si>
+  <si>
+    <t>SSDSC2KG038T801</t>
+  </si>
+  <si>
+    <t>R8120H</t>
+  </si>
+  <si>
+    <t>Usergate F25</t>
+  </si>
+  <si>
+    <t>R8220H</t>
   </si>
 </sst>
 </file>
@@ -753,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>116</v>
@@ -871,7 +883,9 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -910,7 +924,9 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -949,7 +965,9 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -987,10 +1005,10 @@
         <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1074,7 +1092,9 @@
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1113,7 +1133,9 @@
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1152,7 +1174,9 @@
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1234,7 +1258,9 @@
       <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1273,7 +1299,9 @@
       <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1312,7 +1340,9 @@
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1351,7 +1381,9 @@
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1435,7 +1467,9 @@
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1474,7 +1508,9 @@
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1558,7 +1594,9 @@
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1597,7 +1635,9 @@
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1681,7 +1721,9 @@
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1720,7 +1762,9 @@
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1804,7 +1848,9 @@
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1843,7 +1889,9 @@
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1883,7 +1931,7 @@
         <v>87</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>109</v>
@@ -1925,7 +1973,9 @@
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1962,7 +2012,9 @@
       <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1999,7 +2051,9 @@
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2036,7 +2090,9 @@
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
